--- a/table/Enum.Unit.xlsx
+++ b/table/Enum.Unit.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c#\crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCB2188-ADB7-40F6-A481-8CA6FF99F915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4FEEC3-941A-4CD4-AE85-C0F5C80BFE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="17610" yWindow="-120" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitSize" sheetId="3" r:id="rId1"/>
     <sheet name="UnitType" sheetId="6" r:id="rId2"/>
+    <sheet name="StatType" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Small</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +50,26 @@
   </si>
   <si>
     <t>Concussive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,7 +471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325952F3-04E0-4FAE-9A71-568C5D161106}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -478,4 +499,48 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7513B631-D7FA-4679-B457-4F4F58DF7173}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/table/Enum.Unit.xlsx
+++ b/table/Enum.Unit.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c#\crash\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4FEEC3-941A-4CD4-AE85-C0F5C80BFE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6E593B-3D03-469E-B022-372495D475C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17610" yWindow="-120" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitSize" sheetId="3" r:id="rId1"/>
     <sheet name="UnitType" sheetId="6" r:id="rId2"/>
     <sheet name="StatType" sheetId="7" r:id="rId3"/>
+    <sheet name="CommandType" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Small</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +71,18 @@
   </si>
   <si>
     <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSingleTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackMultiTarget</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7513B631-D7FA-4679-B457-4F4F58DF7173}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -542,5 +555,37 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEDE3C6-FE29-44EE-9F25-63526FCAD12D}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/table/Enum.Unit.xlsx
+++ b/table/Enum.Unit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Crash\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c#\crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6E593B-3D03-469E-B022-372495D475C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2C79EC-9EF7-4206-8FE6-F77796FB6572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitSize" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Small</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,16 +74,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AttackSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Move</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AttackMultiTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AttackSingleTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackMultiTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -516,10 +519,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7513B631-D7FA-4679-B457-4F4F58DF7173}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -552,6 +555,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -560,23 +568,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEDE3C6-FE29-44EE-9F25-63526FCAD12D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B034FEF5-8959-4F39-804B-1A373C0B3DB1}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -587,5 +598,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/table/Enum.Unit.xlsx
+++ b/table/Enum.Unit.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c#\crash\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2C79EC-9EF7-4206-8FE6-F77796FB6572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299765B2-AB20-49E7-B17D-FCA6EB978323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="3120" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitSize" sheetId="3" r:id="rId1"/>
-    <sheet name="UnitType" sheetId="6" r:id="rId2"/>
-    <sheet name="StatType" sheetId="7" r:id="rId3"/>
-    <sheet name="CommandType" sheetId="8" r:id="rId4"/>
+    <sheet name="UnitState" sheetId="9" r:id="rId2"/>
+    <sheet name="UnitType" sheetId="6" r:id="rId3"/>
+    <sheet name="StatType" sheetId="7" r:id="rId4"/>
+    <sheet name="CommandType" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Small</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +88,18 @@
   </si>
   <si>
     <t>AttackSingleTarget</t>
+  </si>
+  <si>
+    <t>Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -484,6 +497,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF63DBB-7E2B-4DE6-BAF7-0B4E6BEA5E51}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325952F3-04E0-4FAE-9A71-568C5D161106}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -517,7 +567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7513B631-D7FA-4679-B457-4F4F58DF7173}">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -567,11 +617,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B034FEF5-8959-4F39-804B-1A373C0B3DB1}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/table/Enum.Unit.xlsx
+++ b/table/Enum.Unit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Crash\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\GameProjects\KGCrash\crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299765B2-AB20-49E7-B17D-FCA6EB978323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED9EBC7-4B46-4067-A3BF-55B5E735C404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="6615" yWindow="2835" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitSize" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="UnitType" sheetId="6" r:id="rId3"/>
     <sheet name="StatType" sheetId="7" r:id="rId4"/>
     <sheet name="CommandType" sheetId="8" r:id="rId5"/>
+    <sheet name="AttackType" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Small</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +100,14 @@
   </si>
   <si>
     <t>Dead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Immediately</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF63DBB-7E2B-4DE6-BAF7-0B4E6BEA5E51}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -650,4 +659,31 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842EC95A-9F85-4C45-817B-220E05071B8B}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>